--- a/data_final_am.xlsx
+++ b/data_final_am.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\Documents\GitHub\celalguney\posts\assurance_maladie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\Documents\GitHub\article-assurance-maladie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{314F701F-CED1-46BD-B9D9-2A0E670CEC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B151971-DF67-4ADE-B938-6CC500762034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="615" windowWidth="28485" windowHeight="14970" activeTab="1" xr2:uid="{6F1D0405-E567-46E6-8D14-14BA1834753A}"/>
+    <workbookView xWindow="0" yWindow="510" windowWidth="28485" windowHeight="14970" activeTab="3" xr2:uid="{6F1D0405-E567-46E6-8D14-14BA1834753A}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -132,12 +132,6 @@
     <t>tx_couts</t>
   </si>
   <si>
-    <t>Subventions selon le LAMal per ménage et par année 3 en francs</t>
-  </si>
-  <si>
-    <t>Taux de bénéficiaires en % 2</t>
-  </si>
-  <si>
     <t>Nombre des Bénéficiaires 1</t>
   </si>
   <si>
@@ -147,10 +141,16 @@
     <t>primes_moyenne_par_assures</t>
   </si>
   <si>
-    <t>base100_prime</t>
-  </si>
-  <si>
-    <t>base100_subsides</t>
+    <t>Subventions selon la LAMal par ménage et par année en francs</t>
+  </si>
+  <si>
+    <t>Taux de bénéficiaires (%)</t>
+  </si>
+  <si>
+    <t>Primes moyennes par assuré</t>
+  </si>
+  <si>
+    <t>Subventions selon la LAMal par ménage (en francs)</t>
   </si>
 </sst>
 </file>
@@ -192,9 +192,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -526,7 +527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC51F8C4-6D55-40E2-9AE7-552D21CEB599}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P1" sqref="P1:Q27"/>
     </sheetView>
   </sheetViews>
@@ -2051,47 +2052,47 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
@@ -2269,30 +2270,38 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2B8738-45AB-4236-AAFB-A846B99E2A26}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="54.1328125" customWidth="1"/>
+    <col min="3" max="3" width="21.46484375" customWidth="1"/>
+    <col min="4" max="4" width="29.73046875" customWidth="1"/>
+    <col min="5" max="5" width="22.46484375" customWidth="1"/>
+    <col min="6" max="6" width="33.86328125" customWidth="1"/>
+    <col min="7" max="7" width="32.6640625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>36</v>
-      </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" t="s">
-        <v>38</v>
       </c>
       <c r="G1" t="s">
         <v>39</v>
@@ -2308,7 +2317,7 @@
       <c r="B2">
         <v>1939.5244786551</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>0.23</v>
       </c>
       <c r="D2">
@@ -2334,7 +2343,7 @@
       <c r="B3">
         <v>2016.5343367646201</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>0.27200000000000002</v>
       </c>
       <c r="D3">
@@ -2360,7 +2369,7 @@
       <c r="B4">
         <v>2075.82951268125</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>0.311</v>
       </c>
       <c r="D4">
@@ -2386,7 +2395,7 @@
       <c r="B5">
         <v>2186.56535456755</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>0.32200000000000001</v>
       </c>
       <c r="D5">
@@ -2412,7 +2421,7 @@
       <c r="B6">
         <v>2048.2309409790801</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>0.32177297173491998</v>
       </c>
       <c r="D6">
@@ -2438,7 +2447,7 @@
       <c r="B7">
         <v>2094.0262880208202</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>0.32600000000000001</v>
       </c>
       <c r="D7">
@@ -2464,7 +2473,7 @@
       <c r="B8">
         <v>2242.8949786917201</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>0.33200000000000002</v>
       </c>
       <c r="D8">
@@ -2490,7 +2499,7 @@
       <c r="B9">
         <v>2381.2204626807302</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>0.32926640809331398</v>
       </c>
       <c r="D9">
@@ -2516,7 +2525,7 @@
       <c r="B10">
         <v>2544.2359787298101</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>0.31900000000000001</v>
       </c>
       <c r="D10">
@@ -2542,7 +2551,7 @@
       <c r="B11">
         <v>2633.0518524427398</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>0.30399999999999999</v>
       </c>
       <c r="D11">
@@ -2568,7 +2577,7 @@
       <c r="B12">
         <v>2797.67399496903</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>0.29129080881841002</v>
       </c>
       <c r="D12">
@@ -2594,7 +2603,7 @@
       <c r="B13">
         <v>2791.2678099876298</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>0.30161607339582402</v>
       </c>
       <c r="D13">
@@ -2620,7 +2629,7 @@
       <c r="B14">
         <v>2804.6035641015301</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>0.29579460935900997</v>
       </c>
       <c r="D14">
@@ -2646,7 +2655,7 @@
       <c r="B15">
         <v>2881.37483489749</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>0.29250672209346601</v>
       </c>
       <c r="D15">
@@ -2672,7 +2681,7 @@
       <c r="B16">
         <v>3132.27450749729</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>0.29760312239746101</v>
       </c>
       <c r="D16">
@@ -2698,7 +2707,7 @@
       <c r="B17">
         <v>3193.95764656032</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>0.289171993173439</v>
       </c>
       <c r="D17">
@@ -2724,7 +2733,7 @@
       <c r="B18">
         <v>3165.8711063220499</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>0.290193541595889</v>
       </c>
       <c r="D18">
@@ -2750,7 +2759,7 @@
       <c r="B19">
         <v>3187.5194430697302</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>0.28005209174053602</v>
       </c>
       <c r="D19">
@@ -2776,7 +2785,7 @@
       <c r="B20">
         <v>3253.7042597637401</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>0.26864722758837101</v>
       </c>
       <c r="D20">
@@ -2802,7 +2811,7 @@
       <c r="B21">
         <v>3214.3807593094598</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>0.26948753288994298</v>
       </c>
       <c r="D21">
@@ -2828,7 +2837,7 @@
       <c r="B22">
         <v>3275.6984648533198</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>0.27341481536246298</v>
       </c>
       <c r="D22">
@@ -2854,7 +2863,7 @@
       <c r="B23">
         <v>3471.8424655563199</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>0.26400000000000001</v>
       </c>
       <c r="D23">
@@ -2880,7 +2889,7 @@
       <c r="B24">
         <v>3666.95876719238</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>0.26200000000000001</v>
       </c>
       <c r="D24">
@@ -2906,7 +2915,7 @@
       <c r="B25">
         <v>3773.3038481726599</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>0.27200000000000002</v>
       </c>
       <c r="D25">
@@ -2932,7 +2941,7 @@
       <c r="B26">
         <v>3803.2729826528098</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>0.27605180460135997</v>
       </c>
       <c r="D26">
@@ -2958,7 +2967,7 @@
       <c r="B27">
         <v>3911.9067117239902</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>0.27098766033190402</v>
       </c>
       <c r="D27">
@@ -2984,7 +2993,7 @@
       <c r="B28">
         <v>3961.8086656966698</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>0.25731537527015802</v>
       </c>
       <c r="D28">
@@ -3010,7 +3019,7 @@
       <c r="B29">
         <v>4125.7598031592597</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>0.27530839632178999</v>
       </c>
       <c r="D29">

--- a/data_final_am.xlsx
+++ b/data_final_am.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\Documents\GitHub\article-assurance-maladie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B151971-DF67-4ADE-B938-6CC500762034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C4D244-B18E-4F88-9DFE-225CC8BEAFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="510" windowWidth="28485" windowHeight="14970" activeTab="3" xr2:uid="{6F1D0405-E567-46E6-8D14-14BA1834753A}"/>
   </bookViews>
@@ -141,9 +141,6 @@
     <t>primes_moyenne_par_assures</t>
   </si>
   <si>
-    <t>Subventions selon la LAMal par ménage et par année en francs</t>
-  </si>
-  <si>
     <t>Taux de bénéficiaires (%)</t>
   </si>
   <si>
@@ -151,6 +148,9 @@
   </si>
   <si>
     <t>Subventions selon la LAMal par ménage (en francs)</t>
+  </si>
+  <si>
+    <t>Subventions par ménage (francs)</t>
   </si>
 </sst>
 </file>
@@ -2271,7 +2271,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2289,10 +2289,10 @@
         <v>17</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
         <v>37</v>
-      </c>
-      <c r="C1" t="s">
-        <v>38</v>
       </c>
       <c r="D1" t="s">
         <v>34</v>
@@ -2304,10 +2304,10 @@
         <v>36</v>
       </c>
       <c r="G1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" t="s">
         <v>39</v>
-      </c>
-      <c r="H1" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">

--- a/data_final_am.xlsx
+++ b/data_final_am.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\celal\Documents\GitHub\article-assurance-maladie\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8C4D244-B18E-4F88-9DFE-225CC8BEAFC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65ACB2B0-0E35-44FC-974C-B63FC69584A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="510" windowWidth="28485" windowHeight="14970" activeTab="3" xr2:uid="{6F1D0405-E567-46E6-8D14-14BA1834753A}"/>
+    <workbookView xWindow="0" yWindow="510" windowWidth="28485" windowHeight="14970" activeTab="2" xr2:uid="{6F1D0405-E567-46E6-8D14-14BA1834753A}"/>
   </bookViews>
   <sheets>
     <sheet name="sources" sheetId="1" r:id="rId1"/>
@@ -2045,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A27D049D-37F4-4D9E-9C38-60142F3936A5}">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K23" sqref="K23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -2270,7 +2270,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E2B8738-45AB-4236-AAFB-A846B99E2A26}">
   <dimension ref="A1:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
